--- a/gradle環境.xlsx
+++ b/gradle環境.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Project" sheetId="2" r:id="rId1"/>
     <sheet name="RUNとDEBUG環境" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gradle設定" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>実行環境</t>
     <rPh sb="0" eb="2">
@@ -231,6 +231,107 @@
   </si>
   <si>
     <t xml:space="preserve">Check Gradle Executions tab, you should see a list of tasks executed. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・build.gradle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）tomcat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tomcat {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    httpPort = 8089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ajpPort = 9011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    httpsPort = 8091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    enableSSL = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // EclipseのTomcatで起動する場合のコンテキストパス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    contextPath = '/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /*  users {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        user {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            username = 'user1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            password = '123456'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            roles = ['developers', 'admin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            username = 'user2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            password = 'abcdef'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            roles = ['manager']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }*/</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // default:プロジェクト名「JPBook」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    // http://localhost:8080/JPBook → http://localhost:8090/  本番とあわせる為</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)プロジェクト依存</t>
+    <rPh sb="8" eb="10">
+      <t>イソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・settings.gradle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include ':..:drm.core'</t>
+  </si>
+  <si>
+    <t>//相対パス</t>
+    <rPh sb="2" eb="4">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dependencies {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compile project(':..:drm.core')  //相対パス</t>
+  </si>
+  <si>
+    <t>}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1453,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1736,12 +1837,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="BU39" sqref="BU39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="X30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
